--- a/docss/trend/latvia/E_huntington.xlsx
+++ b/docss/trend/latvia/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,13 +1581,13 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
@@ -1596,13 +1595,13 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>4.4962584972381592E-2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>9.6029847860336304E-2</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -1610,27 +1609,27 @@
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>3.3924177289009094E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>5.5056225508451462E-2</v>
+      <c r="B4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>4.7723259776830673E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.1051793247461319</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.105</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
@@ -1638,13 +1637,13 @@
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>4.369647428393364E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>9.3024492263793945E-2</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -1652,27 +1651,27 @@
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>4.300256073474884E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8.1268720328807831E-2</v>
+      <c r="B7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>4.2887166142463684E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8.8973626494407654E-2</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
@@ -1680,41 +1679,41 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>8.6739767342805862E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8.9260667562484741E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>8.6247257888317108E-2</v>
+      <c r="B9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>4.5967955142259598E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8.9272052049636841E-2</v>
+      <c r="B10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -1722,13 +1721,13 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1736,41 +1735,41 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>9.1966379433870316E-2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.10267572849988937</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9.6039071679115295E-2</v>
+      <c r="B13">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D13">
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>2.7299780398607254E-2</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4.2058631777763367E-2</v>
+      <c r="B14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -1778,14 +1777,14 @@
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>4.3610036373138428E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>7.8950479626655579E-2</v>
+      <c r="B16">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
